--- a/data/2023/scicom2023.xlsx
+++ b/data/2023/scicom2023.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39989558-6D4F-4919-A5DD-F9EE1EB7C82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>Emmanuel</t>
   </si>
@@ -307,12 +308,30 @@
   </si>
   <si>
     <t>AstraZeneca</t>
+  </si>
+  <si>
+    <t>OrgCom</t>
+  </si>
+  <si>
+    <t>Bibiana</t>
+  </si>
+  <si>
+    <t>Blatna</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Guillier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -357,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -379,6 +398,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -659,11 +684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A29" sqref="A29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.140625" defaultRowHeight="15"/>
@@ -673,13 +698,13 @@
     <col min="3" max="3" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="137.140625" style="4"/>
+    <col min="6" max="7" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="137.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -699,14 +724,17 @@
         <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -723,12 +751,13 @@
         <v>79</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -745,12 +774,13 @@
         <v>81</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -767,12 +797,13 @@
         <v>67</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -788,17 +819,18 @@
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -815,12 +847,13 @@
         <v>83</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -842,11 +875,14 @@
       <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -862,11 +898,11 @@
       <c r="E8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -882,17 +918,18 @@
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -909,12 +946,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -931,12 +969,13 @@
         <v>84</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -953,12 +992,13 @@
         <v>79</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -975,12 +1015,13 @@
         <v>77</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -996,12 +1037,12 @@
       <c r="E14" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1018,12 +1059,13 @@
         <v>76</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1040,12 +1082,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1062,12 +1105,13 @@
         <v>26</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1083,17 +1127,18 @@
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -1110,12 +1155,13 @@
         <v>68</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1132,12 +1178,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1154,12 +1201,13 @@
         <v>82</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,12 +1224,13 @@
         <v>80</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1203,12 +1252,15 @@
       <c r="G23" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1225,12 +1277,13 @@
         <v>85</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1247,12 +1300,13 @@
         <v>78</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -1268,11 +1322,11 @@
       <c r="E26" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1289,12 +1343,13 @@
         <v>71</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,24 +1371,59 @@
       <c r="G28" s="5">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30"/>
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32"/>
       <c r="B32"/>
     </row>
@@ -1401,7 +1491,7 @@
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49" s="1"/>
@@ -1409,22 +1499,23 @@
       <c r="E49" s="1"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="5"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52"/>
       <c r="B52"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J53">
     <sortCondition ref="B2:B53"/>
     <sortCondition ref="A2:A53"/>
   </sortState>
